--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/5_Aksaray_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/5_Aksaray_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C48991C-DEDE-4CF2-852C-1C0DCEFE78EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB0D2B8-D320-4E90-9AC9-0FF4D14E71D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{5B893C80-78CF-4612-BA68-6808B9377803}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{5573D89B-7E50-43DD-8E9F-642E3E160E45}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -808,14 +808,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{50573F83-C0E2-49B7-9F01-F3869D9F958B}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{146083C9-09EE-4825-B5CE-75AC8CA1F41B}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{1A623285-C2E8-4D0E-8498-E84041FE0366}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{2F72E8EF-C94B-43E2-B41B-25DCEF9B93B1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{89FACDCF-67F6-4C50-B451-416F7B490304}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D379B610-35AF-49CE-A55D-EF596E13108D}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{F7B75574-81AF-4F99-BA46-272A1F7FF31F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A1EACBA0-3DAC-45E0-935E-40B8FAAC5ABD}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7A4DE037-7EE8-46CA-9C7B-BA78481F76BC}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8B61E923-EF65-4DAC-85B3-7D7EB9F33A16}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{5D6E1B21-766D-4746-A811-D3F894C7DA13}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{F5077E36-5E4F-4B61-8514-E4D7842B520E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F78D6577-F5C0-46E2-8BA6-7BC15500F92D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{DA0AD0D0-4087-4BCE-B659-FB8C50224113}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{DC3B5528-3A99-4D51-8563-FB34A200925F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D44132E1-60E6-4A68-A3F3-68E2A3FBC6D5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1185,7 +1185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E63ECE4-10C6-408A-8E4B-5469004C0D2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0963E1B6-5B62-41F6-8C18-9DC9E95FC007}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2446,7 +2446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8677741F-8C49-45E8-82D4-7DA4BFCA2C25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EE547B-7B25-416A-9A3C-C43FE25C8D05}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3710,7 +3710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E96E45D-71EF-48CB-BE5F-DC7AF2CE65C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A05762-DDED-49FD-8661-DDC0624BB465}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4973,7 +4973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85969898-484C-4E31-B5B1-E807A35E4910}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725FD64D-C400-434D-B49A-ADE9CF4D9224}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6244,7 +6244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD73EF0-4CB9-4D17-8284-69E389774AEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5066061E-C066-4FCA-A44C-3168D7C4F9AE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7501,7 +7501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C70E6FA-3C57-4E92-8977-F29AB7D8977A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C00AC1-5D70-471F-BBD8-5DA9A4087DA0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
